--- a/config/MigrationOutput.xlsx
+++ b/config/MigrationOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14A8171-B5AD-47F9-9A73-97BDBB4B631D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C83DD-A77C-44BA-96AE-566F70AB1DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F66FDD05-0E3C-4B83-BD02-ECB535F83CA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Migration  Date Time</t>
   </si>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47E192-D16C-4A35-865D-B3CCAC03F25C}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
@@ -435,6 +435,54 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1">
+        <v>43835.571122685185</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="1">
+        <v>43835.571689814817</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>43835.745486111111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>43835.746574074074</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>43835.756932870368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>43835.761701388888</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config/MigrationOutput.xlsx
+++ b/config/MigrationOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764C83DD-A77C-44BA-96AE-566F70AB1DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27315533-0D98-4DEA-930C-40E9094EB91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F66FDD05-0E3C-4B83-BD02-ECB535F83CA0}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t>Migration  Date Time</t>
   </si>
@@ -400,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47E192-D16C-4A35-865D-B3CCAC03F25C}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A4"/>
@@ -483,6 +483,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>43835.770601851851</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/config/MigrationOutput.xlsx
+++ b/config/MigrationOutput.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabharti\Documents\UiPath\SPMTAutomation\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27315533-0D98-4DEA-930C-40E9094EB91C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21888A24-CCB3-4FE1-A382-FC5370546751}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{F66FDD05-0E3C-4B83-BD02-ECB535F83CA0}"/>
   </bookViews>
@@ -33,18 +33,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Migration  Date Time</t>
   </si>
   <si>
     <t>Migration Status</t>
-  </si>
-  <si>
-    <t>Migration Successful</t>
-  </si>
-  <si>
-    <t>Migration Incomplete with error</t>
   </si>
 </sst>
 </file>
@@ -54,8 +48,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,9 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B47E192-D16C-4A35-865D-B3CCAC03F25C}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -411,84 +415,12 @@
     <col min="1" max="1" width="45.1328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>43835.562974537039</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1">
-        <v>43835.564074074071</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="1">
-        <v>43835.571122685185</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="1">
-        <v>43835.571689814817</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>43835.745486111111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="1">
-        <v>43835.746574074074</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="1">
-        <v>43835.756932870368</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1">
-        <v>43835.761701388888</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>43835.770601851851</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
